--- a/부품.xlsx
+++ b/부품.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>품목</t>
   </si>
@@ -41,31 +36,7 @@
     <t>바디 프레임</t>
   </si>
   <si>
-    <t>ROB0005</t>
-  </si>
-  <si>
-    <t>관성항법 위치센서 모듈</t>
-  </si>
-  <si>
-    <t>10 DOF IMU Sensor</t>
-  </si>
-  <si>
-    <t>레이저 센서모듈</t>
-  </si>
-  <si>
-    <t>WAV - LASERSENSO</t>
-  </si>
-  <si>
-    <t>WAV-LASERSENSO</t>
-  </si>
-  <si>
     <t>모터 쉴드</t>
-  </si>
-  <si>
-    <t>L298P Motor Shield</t>
-  </si>
-  <si>
-    <t>모터 드라이버 쉴드</t>
   </si>
   <si>
     <t>건전지</t>
@@ -164,11 +135,80 @@
     </r>
   </si>
   <si>
-    <t>배럴 잭</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9V </t>
+    <t>총액</t>
+  </si>
+  <si>
+    <t>[ROB0005] Turtle</t>
+  </si>
+  <si>
+    <t>2WD Mobile Platform</t>
+  </si>
+  <si>
+    <t>툴파츠</t>
+  </si>
+  <si>
+    <t>디바이스마트</t>
+  </si>
+  <si>
+    <t>레이저 센서 모듈</t>
+  </si>
+  <si>
+    <t>WAV - LASERSENSOR</t>
+  </si>
+  <si>
+    <t>메카솔루션</t>
+  </si>
+  <si>
+    <t>초음파 센서 모듈</t>
+  </si>
+  <si>
+    <t>HC - SR04 [SZH-EK004]</t>
+  </si>
+  <si>
+    <t>L293D [SZH-EK003]</t>
+  </si>
+  <si>
+    <t>배터리 홀더</t>
+  </si>
+  <si>
+    <t>SZH-BH006</t>
+  </si>
+  <si>
+    <t>블루투스 모듈</t>
+  </si>
+  <si>
+    <r>
+      <t>미정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <r>
+      <t>자이로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -178,42 +218,24 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>배럴 잭</t>
-    </r>
-  </si>
-  <si>
-    <t>초음파 거리센서 모듈</t>
-  </si>
-  <si>
-    <t>HC - SR04 [SZH - EK004]</t>
-  </si>
-  <si>
-    <t>초음파센서</t>
-  </si>
-  <si>
-    <t>총액</t>
-  </si>
-  <si>
-    <t>90,400 + 1,300</t>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ROB0005] Turtle 2WD Mobile Platform</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10 DOF IMU Sensor, </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>가속도 센서 모듈</t>
+    </r>
+  </si>
+  <si>
+    <t>GY-521 [SZH-EK007]</t>
+  </si>
+  <si>
+    <t>1set</t>
+  </si>
+  <si>
+    <t>91,820 + a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +292,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +429,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -421,6 +457,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,205 +746,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F12"/>
+  <dimension ref="C2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="3:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="10">
         <v>42500</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="3:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2700</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14300</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1300</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
-        <v>19300</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="F10" s="4">
+        <v>1440</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="11" spans="3:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>14300</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3">
+        <v>780</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>11640</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1440</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>780</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>440</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1300</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="6">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" display="http://www.eleparts.co.kr/EPXF9WNC"/>
-    <hyperlink ref="F6" r:id="rId2" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=8077&amp;category=049024"/>
-    <hyperlink ref="F7" r:id="rId3" location="tabProductReview" display="http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1486621584&amp;NaPm=ct=itn166w0|ci=331acc9d237558418f67d3a6de0f6047a7827cb6|tr=sls|sn=17703|hk=6f96c43b48813abf03ae2619c52d2a87a01691f1&amp;utm_term=&amp;utm_campaign=-&amp;utm_source=%B3%D7%C0%CC%B9%F6_PCS&amp;utm_medium=%B0%A1%B0%DD%BA%F1%B1%B3 - tabProductReview"/>
-    <hyperlink ref="F8" r:id="rId4" display="http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=3694268299&amp;sc.dispNo=016001&amp;sc.dispNo=016001"/>
-    <hyperlink ref="F9" r:id="rId5" display="http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B239250987&amp;frm3=V2"/>
-    <hyperlink ref="F10" r:id="rId6" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=33&amp;inflow=naver&amp;NaPm=ct%3Ditn7c8ps%7Cci%3D8370273dea5ca2da1d3a7ed4edf573d25d145231%7Ctr%3Dslsl%7Csn%3D188145%7Chk%3Dc7020021b1fc7b3e3f84fb7541d0a3618040775a"/>
-    <hyperlink ref="F11" r:id="rId7" display="http://www.devicemart.co.kr/1076851"/>
-    <hyperlink ref="F3" r:id="rId8" display="http://toolparts.co.kr/front/php/product.php?product_no=68421&amp;main_cate_no=2440&amp;display_group=1&amp;cafe_mkt=naver_ks&amp;mkt_in=Y&amp;ghost_mall_id=naver&amp;ref=naver_open&amp;NaPm=ct%3Ditn3o3rs%7Cci%3Db461682263a94ee5b26aff6a5b0032fa97a9b59b%7Ctr%3Dslsl%7Csn%3D115848%7Chk%3D70b3e4fae7128b617d79d1b0924b3b4107dd566e"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://toolparts.co.kr/front/php/product.php?product_no=68421&amp;main_cate_no=2440&amp;display_group=1&amp;cafe_mkt=naver_ks&amp;mkt_in=Y&amp;ghost_mall_id=naver&amp;ref=naver_open&amp;NaPm=ct%3Ditn3o3rs%7Cci%3Db461682263a94ee5b26aff6a5b0032fa97a9b59b%7Ctr%3Dslsl%7Csn%3D115848%7Chk%3D70b3e4fae7128b617d79d1b0924b3b4107dd566e"/>
+    <hyperlink ref="G5" r:id="rId2" display="http://www.devicemart.co.kr/1247052"/>
+    <hyperlink ref="G6" r:id="rId3" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=8077&amp;category=049024"/>
+    <hyperlink ref="G7" r:id="rId4" display="http://www.devicemart.co.kr/1076851"/>
+    <hyperlink ref="G8" r:id="rId5" display="http://www.devicemart.co.kr/1278922"/>
+    <hyperlink ref="G9" r:id="rId6" display="http://www.devicemart.co.kr/1278968"/>
+    <hyperlink ref="G10" r:id="rId7" display="http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=3694268299&amp;sc.dispNo=016001&amp;sc.dispNo=016001"/>
+    <hyperlink ref="G11" r:id="rId8" display="http://itempage3.auction.co.kr/DetailView.aspx?ItemNo=B239250987&amp;frm3=V2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId9"/>
